--- a/Code/Results/Cases/Case_0_93/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_93/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1856570335648655</v>
+        <v>0.05088209513382935</v>
       </c>
       <c r="D2">
-        <v>0.3723656935940767</v>
+        <v>0.09244243276017983</v>
       </c>
       <c r="E2">
-        <v>1.865122236947968</v>
+        <v>0.4343060183838787</v>
       </c>
       <c r="F2">
-        <v>7.675014725063477</v>
+        <v>2.285403960572268</v>
       </c>
       <c r="G2">
-        <v>9.330031984135928</v>
+        <v>2.564910388463545</v>
       </c>
       <c r="H2">
-        <v>4.441929826917601</v>
+        <v>1.534877293481372</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.663121664606024</v>
+        <v>2.873581687696344</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1555495605540784</v>
+        <v>0.04499111415316293</v>
       </c>
       <c r="D3">
-        <v>0.3089892477857603</v>
+        <v>0.08099312179201945</v>
       </c>
       <c r="E3">
-        <v>1.539646095811065</v>
+        <v>0.3774527995275037</v>
       </c>
       <c r="F3">
-        <v>6.418561741040463</v>
+        <v>2.053156900224707</v>
       </c>
       <c r="G3">
-        <v>7.793352809598446</v>
+        <v>2.275893840270271</v>
       </c>
       <c r="H3">
-        <v>3.72025471260315</v>
+        <v>1.407448340503549</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.74968365211538</v>
+        <v>2.562605684679454</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1382228387076054</v>
+        <v>0.04140688078129529</v>
       </c>
       <c r="D4">
-        <v>0.2730514608946919</v>
+        <v>0.07402400667390907</v>
       </c>
       <c r="E4">
-        <v>1.356603117254522</v>
+        <v>0.3428124898187548</v>
       </c>
       <c r="F4">
-        <v>5.69937582916296</v>
+        <v>1.91231671163419</v>
       </c>
       <c r="G4">
-        <v>6.913810774261719</v>
+        <v>2.100249222090838</v>
       </c>
       <c r="H4">
-        <v>3.308036719111669</v>
+        <v>1.330500229916026</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.187481969422947</v>
+        <v>2.371325805375761</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.131386634739016</v>
+        <v>0.03995402274580329</v>
       </c>
       <c r="D5">
-        <v>0.2589740262933873</v>
+        <v>0.07119808863397736</v>
       </c>
       <c r="E5">
-        <v>1.285180837645726</v>
+        <v>0.3287567351206491</v>
       </c>
       <c r="F5">
-        <v>5.416400482475808</v>
+        <v>1.855343698008141</v>
       </c>
       <c r="G5">
-        <v>6.567720490010515</v>
+        <v>2.02910102924011</v>
       </c>
       <c r="H5">
-        <v>3.146034036310539</v>
+        <v>1.299455806609899</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.958052239810399</v>
+        <v>2.293303068605894</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1302634292941889</v>
+        <v>0.03971322982907566</v>
       </c>
       <c r="D6">
-        <v>0.2566664384983426</v>
+        <v>0.07072966030489169</v>
       </c>
       <c r="E6">
-        <v>1.273487696358799</v>
+        <v>0.3264262411716459</v>
       </c>
       <c r="F6">
-        <v>5.369949113613984</v>
+        <v>1.845908133199856</v>
       </c>
       <c r="G6">
-        <v>6.510906626696624</v>
+        <v>2.017312013858941</v>
       </c>
       <c r="H6">
-        <v>3.119451668442537</v>
+        <v>1.29431941459319</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.919936152110722</v>
+        <v>2.280343261403857</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1381298093375278</v>
+        <v>0.04138725633737295</v>
       </c>
       <c r="D7">
-        <v>0.2728595107488871</v>
+        <v>0.07398584006804754</v>
       </c>
       <c r="E7">
-        <v>1.355628221599474</v>
+        <v>0.3426226931926237</v>
       </c>
       <c r="F7">
-        <v>5.695522049674338</v>
+        <v>1.911546679905854</v>
       </c>
       <c r="G7">
-        <v>6.909097563859177</v>
+        <v>2.099287993742394</v>
       </c>
       <c r="H7">
-        <v>3.305829686465984</v>
+        <v>1.33008030506619</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.184389112219662</v>
+        <v>2.370273851392596</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1749884425050539</v>
+        <v>0.04884375063495838</v>
       </c>
       <c r="D8">
-        <v>0.3497678933744055</v>
+        <v>0.08848133144674364</v>
       </c>
       <c r="E8">
-        <v>1.748657329297259</v>
+        <v>0.4146432302580223</v>
       </c>
       <c r="F8">
-        <v>7.22879506256487</v>
+        <v>2.204946202125313</v>
       </c>
       <c r="G8">
-        <v>8.784259182292601</v>
+        <v>2.464864458016393</v>
       </c>
       <c r="H8">
-        <v>4.185425429329086</v>
+        <v>1.490663432560154</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.348453399592699</v>
+        <v>2.766433886209825</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2611180137486997</v>
+        <v>0.06375108278101038</v>
       </c>
       <c r="D9">
-        <v>0.5371928614723629</v>
+        <v>0.117447993817521</v>
       </c>
       <c r="E9">
-        <v>2.730680537778397</v>
+        <v>0.5583251547865871</v>
       </c>
       <c r="F9">
-        <v>10.8648566880959</v>
+        <v>2.795323943595179</v>
       </c>
       <c r="G9">
-        <v>13.23418239251339</v>
+        <v>3.197443359351496</v>
       </c>
       <c r="H9">
-        <v>6.28152784529783</v>
+        <v>1.816439590657581</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.620230281550675</v>
+        <v>3.540180268007646</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3456838580969048</v>
+        <v>0.07491319404151398</v>
       </c>
       <c r="D10">
-        <v>0.7351308135605734</v>
+        <v>0.1391449197433303</v>
       </c>
       <c r="E10">
-        <v>3.819470607789555</v>
+        <v>0.6658540739309728</v>
       </c>
       <c r="F10">
-        <v>14.52539878896573</v>
+        <v>3.239773343520312</v>
       </c>
       <c r="G10">
-        <v>17.72492545868789</v>
+        <v>3.747132436533263</v>
       </c>
       <c r="H10">
-        <v>8.404622702938411</v>
+        <v>2.063304805149698</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.28258838837513</v>
+        <v>4.10623028343673</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3980420118973313</v>
+        <v>0.08004481728906399</v>
       </c>
       <c r="D11">
-        <v>0.8676665612978809</v>
+        <v>0.1491249759874904</v>
       </c>
       <c r="E11">
-        <v>4.592486907723497</v>
+        <v>0.715306283212044</v>
       </c>
       <c r="F11">
-        <v>16.85601590184092</v>
+        <v>3.444639034242812</v>
       </c>
       <c r="G11">
-        <v>20.59348190551987</v>
+        <v>4.00012231043263</v>
       </c>
       <c r="H11">
-        <v>9.763363247380767</v>
+        <v>2.177445210765711</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.03742316731763</v>
+        <v>4.363110593465422</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4231354612004026</v>
+        <v>0.08199645954792345</v>
       </c>
       <c r="D12">
-        <v>0.9349635266790415</v>
+        <v>0.1529216098636255</v>
       </c>
       <c r="E12">
-        <v>5.003785645136844</v>
+        <v>0.73411879543319</v>
       </c>
       <c r="F12">
-        <v>17.99756797957929</v>
+        <v>3.522631409936139</v>
       </c>
       <c r="G12">
-        <v>22.00218203121085</v>
+        <v>4.096380848005879</v>
       </c>
       <c r="H12">
-        <v>10.43111721448651</v>
+        <v>2.220948711345443</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.32306348037548</v>
+        <v>4.460285735713398</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.417335878764689</v>
+        <v>0.08157575385018845</v>
       </c>
       <c r="D13">
-        <v>0.9191510461840835</v>
+        <v>0.1521031369487673</v>
       </c>
       <c r="E13">
-        <v>4.905805274816203</v>
+        <v>0.7300632132612037</v>
       </c>
       <c r="F13">
-        <v>17.73203521504911</v>
+        <v>3.505815472973268</v>
       </c>
       <c r="G13">
-        <v>21.67425952887123</v>
+        <v>4.075628964692669</v>
       </c>
       <c r="H13">
-        <v>10.27565162457381</v>
+        <v>2.211566688482378</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.26155457991871</v>
+        <v>4.439361943450422</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3999515256685413</v>
+        <v>0.08020520772986117</v>
       </c>
       <c r="D14">
-        <v>0.8726898726376646</v>
+        <v>0.1494369692640589</v>
       </c>
       <c r="E14">
-        <v>4.622695309273595</v>
+        <v>0.7168522236950281</v>
       </c>
       <c r="F14">
-        <v>16.94224411874654</v>
+        <v>3.451047047003783</v>
       </c>
       <c r="G14">
-        <v>20.69979558222019</v>
+        <v>4.008032199225568</v>
       </c>
       <c r="H14">
-        <v>9.813748492133584</v>
+        <v>2.181018542013135</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.06092695796548</v>
+        <v>4.371107314139294</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3902093851947797</v>
+        <v>0.07936682344265478</v>
       </c>
       <c r="D15">
-        <v>0.8472159673237343</v>
+        <v>0.1478061790211314</v>
       </c>
       <c r="E15">
-        <v>4.470259732689115</v>
+        <v>0.7087715839542454</v>
       </c>
       <c r="F15">
-        <v>16.50332312364202</v>
+        <v>3.417554602524831</v>
       </c>
       <c r="G15">
-        <v>20.15878349670999</v>
+        <v>3.966687771745626</v>
       </c>
       <c r="H15">
-        <v>9.557364994811849</v>
+        <v>2.162344012834808</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.93801081193834</v>
+        <v>4.329286057409945</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3426998232090313</v>
+        <v>0.07457897080199416</v>
       </c>
       <c r="D16">
-        <v>0.7278435312695422</v>
+        <v>0.1384950473262165</v>
       </c>
       <c r="E16">
-        <v>3.778150520437052</v>
+        <v>0.6626338051536322</v>
       </c>
       <c r="F16">
-        <v>14.39428815338991</v>
+        <v>3.226441281925361</v>
       </c>
       <c r="G16">
-        <v>17.56380450096225</v>
+        <v>3.73066093909091</v>
       </c>
       <c r="H16">
-        <v>8.328354648751883</v>
+        <v>2.055883877073995</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.23323027560718</v>
+        <v>4.089429168003562</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3181015662370612</v>
+        <v>0.07165604684574589</v>
       </c>
       <c r="D17">
-        <v>0.6687008749167376</v>
+        <v>0.1328122544846622</v>
       </c>
       <c r="E17">
-        <v>3.446655229063168</v>
+        <v>0.6344734356464699</v>
       </c>
       <c r="F17">
-        <v>13.31946438139786</v>
+        <v>3.109906547216241</v>
       </c>
       <c r="G17">
-        <v>16.24382005051393</v>
+        <v>3.586641909769298</v>
       </c>
       <c r="H17">
-        <v>7.703764019330833</v>
+        <v>1.99105681049997</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.80051555282938</v>
+        <v>3.94211849063862</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3050143135126717</v>
+        <v>0.06997989321288856</v>
       </c>
       <c r="D18">
-        <v>0.6378613649225997</v>
+        <v>0.1295539192348656</v>
       </c>
       <c r="E18">
-        <v>3.276318575078278</v>
+        <v>0.618326308666667</v>
       </c>
       <c r="F18">
-        <v>12.7516340812505</v>
+        <v>3.0431296698263</v>
       </c>
       <c r="G18">
-        <v>15.54704098242587</v>
+        <v>3.504079926245083</v>
       </c>
       <c r="H18">
-        <v>7.374245859443079</v>
+        <v>1.953942185061351</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.55149949033279</v>
+        <v>3.857331695637129</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3007313759135712</v>
+        <v>0.06941322161689811</v>
       </c>
       <c r="D19">
-        <v>0.6278565927001125</v>
+        <v>0.1284524172936017</v>
       </c>
       <c r="E19">
-        <v>3.221401727223821</v>
+        <v>0.6128674879012692</v>
       </c>
       <c r="F19">
-        <v>12.56636860820157</v>
+        <v>3.020562399879111</v>
       </c>
       <c r="G19">
-        <v>15.31978163825084</v>
+        <v>3.476171866273489</v>
       </c>
       <c r="H19">
-        <v>7.266801051581581</v>
+        <v>1.941404895010351</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.46716465870099</v>
+        <v>3.828614786364199</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3206012647577552</v>
+        <v>0.07196667133618462</v>
       </c>
       <c r="D20">
-        <v>0.6746388619930599</v>
+        <v>0.1334161246630856</v>
       </c>
       <c r="E20">
-        <v>3.47964260672876</v>
+        <v>0.6374659200924242</v>
       </c>
       <c r="F20">
-        <v>13.42822632158254</v>
+        <v>3.122285708113651</v>
       </c>
       <c r="G20">
-        <v>16.37732370930138</v>
+        <v>3.601944379440397</v>
       </c>
       <c r="H20">
-        <v>7.76691522053909</v>
+        <v>1.99793982481799</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.84659223998074</v>
+        <v>3.957806003277312</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4048466400155775</v>
+        <v>0.08060753682887878</v>
       </c>
       <c r="D21">
-        <v>0.8856373130683721</v>
+        <v>0.1502196021049826</v>
       </c>
       <c r="E21">
-        <v>4.700906088006462</v>
+        <v>0.7207302043796346</v>
       </c>
       <c r="F21">
-        <v>17.16375027133307</v>
+        <v>3.467122389459689</v>
       </c>
       <c r="G21">
-        <v>20.9729654256987</v>
+        <v>4.027874326515359</v>
       </c>
       <c r="H21">
-        <v>9.943219625902884</v>
+        <v>2.189983512906224</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.11986155709366</v>
+        <v>4.391158149571254</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4048466400155775</v>
+        <v>0.08630417082449071</v>
       </c>
       <c r="D22">
-        <v>0.8856373130683721</v>
+        <v>0.1613038644014182</v>
       </c>
       <c r="E22">
-        <v>4.700906088006462</v>
+        <v>0.7756540621339951</v>
       </c>
       <c r="F22">
-        <v>17.16375027133307</v>
+        <v>3.694921204906962</v>
       </c>
       <c r="G22">
-        <v>20.9729654256987</v>
+        <v>4.308923702799916</v>
       </c>
       <c r="H22">
-        <v>9.943219625902884</v>
+        <v>2.317141151680005</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.11986155709366</v>
+        <v>4.673791817957863</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4048466400155775</v>
+        <v>0.08325903397826551</v>
       </c>
       <c r="D23">
-        <v>0.8856373130683721</v>
+        <v>0.1553780927345656</v>
       </c>
       <c r="E23">
-        <v>4.700906088006462</v>
+        <v>0.7462908648888913</v>
       </c>
       <c r="F23">
-        <v>17.16375027133307</v>
+        <v>3.573108878531798</v>
       </c>
       <c r="G23">
-        <v>20.9729654256987</v>
+        <v>4.158665295903518</v>
       </c>
       <c r="H23">
-        <v>9.943219625902884</v>
+        <v>2.249118535815285</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.11986155709366</v>
+        <v>4.523002190001307</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4048466400155775</v>
+        <v>0.0718262247396666</v>
       </c>
       <c r="D24">
-        <v>0.8856373130683721</v>
+        <v>0.1331430877325772</v>
       </c>
       <c r="E24">
-        <v>4.700906088006462</v>
+        <v>0.6361128857111993</v>
       </c>
       <c r="F24">
-        <v>17.16375027133307</v>
+        <v>3.116688404811185</v>
       </c>
       <c r="G24">
-        <v>20.9729654256987</v>
+        <v>3.595025398961184</v>
       </c>
       <c r="H24">
-        <v>9.943219625902884</v>
+        <v>1.994827531494195</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.11986155709366</v>
+        <v>3.950713976768498</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4048466400155775</v>
+        <v>0.05968409346765213</v>
       </c>
       <c r="D25">
-        <v>0.8856373130683721</v>
+        <v>0.1095451899369664</v>
       </c>
       <c r="E25">
-        <v>4.700906088006462</v>
+        <v>0.5191453392989445</v>
       </c>
       <c r="F25">
-        <v>17.16375027133307</v>
+        <v>2.633846868522568</v>
       </c>
       <c r="G25">
-        <v>20.9729654256987</v>
+        <v>2.997389641848088</v>
       </c>
       <c r="H25">
-        <v>9.943219625902884</v>
+        <v>1.72705449418288</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.11986155709366</v>
+        <v>3.331249627311138</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_93/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_93/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05088209513382935</v>
+        <v>0.1856570335641408</v>
       </c>
       <c r="D2">
-        <v>0.09244243276017983</v>
+        <v>0.3723656935940767</v>
       </c>
       <c r="E2">
-        <v>0.4343060183838787</v>
+        <v>1.865122236947983</v>
       </c>
       <c r="F2">
-        <v>2.285403960572268</v>
+        <v>7.675014725063363</v>
       </c>
       <c r="G2">
-        <v>2.564910388463545</v>
+        <v>9.330031984135758</v>
       </c>
       <c r="H2">
-        <v>1.534877293481372</v>
+        <v>4.441929826917544</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.873581687696344</v>
+        <v>7.663121664606138</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04499111415316293</v>
+        <v>0.1555495605538511</v>
       </c>
       <c r="D3">
-        <v>0.08099312179201945</v>
+        <v>0.3089892477857177</v>
       </c>
       <c r="E3">
-        <v>0.3774527995275037</v>
+        <v>1.539646095811065</v>
       </c>
       <c r="F3">
-        <v>2.053156900224707</v>
+        <v>6.418561741040492</v>
       </c>
       <c r="G3">
-        <v>2.275893840270271</v>
+        <v>7.793352809598559</v>
       </c>
       <c r="H3">
-        <v>1.407448340503549</v>
+        <v>3.720254712603264</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.562605684679454</v>
+        <v>6.74968365211538</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04140688078129529</v>
+        <v>0.1382228387072928</v>
       </c>
       <c r="D4">
-        <v>0.07402400667390907</v>
+        <v>0.2730514608945498</v>
       </c>
       <c r="E4">
-        <v>0.3428124898187548</v>
+        <v>1.356603117254522</v>
       </c>
       <c r="F4">
-        <v>1.91231671163419</v>
+        <v>5.699375829162904</v>
       </c>
       <c r="G4">
-        <v>2.100249222090838</v>
+        <v>6.913810774261719</v>
       </c>
       <c r="H4">
-        <v>1.330500229916026</v>
+        <v>3.308036719111669</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.371325805375761</v>
+        <v>6.187481969423004</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03995402274580329</v>
+        <v>0.131386634739016</v>
       </c>
       <c r="D5">
-        <v>0.07119808863397736</v>
+        <v>0.2589740262937994</v>
       </c>
       <c r="E5">
-        <v>0.3287567351206491</v>
+        <v>1.285180837645783</v>
       </c>
       <c r="F5">
-        <v>1.855343698008141</v>
+        <v>5.416400482475836</v>
       </c>
       <c r="G5">
-        <v>2.02910102924011</v>
+        <v>6.567720490010686</v>
       </c>
       <c r="H5">
-        <v>1.299455806609899</v>
+        <v>3.146034036310539</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.293303068605894</v>
+        <v>5.958052239810513</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03971322982907566</v>
+        <v>0.1302634292936347</v>
       </c>
       <c r="D6">
-        <v>0.07072966030489169</v>
+        <v>0.2566664384983284</v>
       </c>
       <c r="E6">
-        <v>0.3264262411716459</v>
+        <v>1.273487696358742</v>
       </c>
       <c r="F6">
-        <v>1.845908133199856</v>
+        <v>5.369949113614013</v>
       </c>
       <c r="G6">
-        <v>2.017312013858941</v>
+        <v>6.510906626696681</v>
       </c>
       <c r="H6">
-        <v>1.29431941459319</v>
+        <v>3.11945166844248</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.280343261403857</v>
+        <v>5.919936152110608</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04138725633737295</v>
+        <v>0.1381298093368315</v>
       </c>
       <c r="D7">
-        <v>0.07398584006804754</v>
+        <v>0.2728595107488729</v>
       </c>
       <c r="E7">
-        <v>0.3426226931926237</v>
+        <v>1.355628221599503</v>
       </c>
       <c r="F7">
-        <v>1.911546679905854</v>
+        <v>5.695522049674395</v>
       </c>
       <c r="G7">
-        <v>2.099287993742394</v>
+        <v>6.90909756385912</v>
       </c>
       <c r="H7">
-        <v>1.33008030506619</v>
+        <v>3.305829686466154</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.370273851392596</v>
+        <v>6.184389112219662</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04884375063495838</v>
+        <v>0.1749884425050254</v>
       </c>
       <c r="D8">
-        <v>0.08848133144674364</v>
+        <v>0.3497678933747608</v>
       </c>
       <c r="E8">
-        <v>0.4146432302580223</v>
+        <v>1.748657329297259</v>
       </c>
       <c r="F8">
-        <v>2.204946202125313</v>
+        <v>7.22879506256487</v>
       </c>
       <c r="G8">
-        <v>2.464864458016393</v>
+        <v>8.784259182292658</v>
       </c>
       <c r="H8">
-        <v>1.490663432560154</v>
+        <v>4.1854254293292</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.766433886209825</v>
+        <v>7.348453399592813</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06375108278101038</v>
+        <v>0.2611180137487281</v>
       </c>
       <c r="D9">
-        <v>0.117447993817521</v>
+        <v>0.5371928614722066</v>
       </c>
       <c r="E9">
-        <v>0.5583251547865871</v>
+        <v>2.730680537778326</v>
       </c>
       <c r="F9">
-        <v>2.795323943595179</v>
+        <v>10.86485668809578</v>
       </c>
       <c r="G9">
-        <v>3.197443359351496</v>
+        <v>13.23418239251311</v>
       </c>
       <c r="H9">
-        <v>1.816439590657581</v>
+        <v>6.281527845297774</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.540180268007646</v>
+        <v>9.620230281550675</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07491319404151398</v>
+        <v>0.3456838580963506</v>
       </c>
       <c r="D10">
-        <v>0.1391449197433303</v>
+        <v>0.7351308135608576</v>
       </c>
       <c r="E10">
-        <v>0.6658540739309728</v>
+        <v>3.819470607789498</v>
       </c>
       <c r="F10">
-        <v>3.239773343520312</v>
+        <v>14.52539878896522</v>
       </c>
       <c r="G10">
-        <v>3.747132436533263</v>
+        <v>17.72492545868749</v>
       </c>
       <c r="H10">
-        <v>2.063304805149698</v>
+        <v>8.404622702938184</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.10623028343673</v>
+        <v>11.28258838837525</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.08004481728906399</v>
+        <v>0.3980420118979282</v>
       </c>
       <c r="D11">
-        <v>0.1491249759874904</v>
+        <v>0.8676665612981083</v>
       </c>
       <c r="E11">
-        <v>0.715306283212044</v>
+        <v>4.592486907723412</v>
       </c>
       <c r="F11">
-        <v>3.444639034242812</v>
+        <v>16.85601590184069</v>
       </c>
       <c r="G11">
-        <v>4.00012231043263</v>
+        <v>20.59348190551952</v>
       </c>
       <c r="H11">
-        <v>2.177445210765711</v>
+        <v>9.76336324738071</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.363110593465422</v>
+        <v>12.03742316731768</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.08199645954792345</v>
+        <v>0.4231354612001894</v>
       </c>
       <c r="D12">
-        <v>0.1529216098636255</v>
+        <v>0.9349635266787573</v>
       </c>
       <c r="E12">
-        <v>0.73411879543319</v>
+        <v>5.003785645136844</v>
       </c>
       <c r="F12">
-        <v>3.522631409936139</v>
+        <v>17.99756797957923</v>
       </c>
       <c r="G12">
-        <v>4.096380848005879</v>
+        <v>22.00218203121074</v>
       </c>
       <c r="H12">
-        <v>2.220948711345443</v>
+        <v>10.43111721448645</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.460285735713398</v>
+        <v>12.32306348037537</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.08157575385018845</v>
+        <v>0.417335878764348</v>
       </c>
       <c r="D13">
-        <v>0.1521031369487673</v>
+        <v>0.9191510461834582</v>
       </c>
       <c r="E13">
-        <v>0.7300632132612037</v>
+        <v>4.905805274816302</v>
       </c>
       <c r="F13">
-        <v>3.505815472973268</v>
+        <v>17.73203521504939</v>
       </c>
       <c r="G13">
-        <v>4.075628964692669</v>
+        <v>21.67425952887157</v>
       </c>
       <c r="H13">
-        <v>2.211566688482378</v>
+        <v>10.27565162457392</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.439361943450422</v>
+        <v>12.26155457991899</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.08020520772986117</v>
+        <v>0.3999515256690955</v>
       </c>
       <c r="D14">
-        <v>0.1494369692640589</v>
+        <v>0.8726898726374088</v>
       </c>
       <c r="E14">
-        <v>0.7168522236950281</v>
+        <v>4.622695309273638</v>
       </c>
       <c r="F14">
-        <v>3.451047047003783</v>
+        <v>16.94224411874666</v>
       </c>
       <c r="G14">
-        <v>4.008032199225568</v>
+        <v>20.69979558222025</v>
       </c>
       <c r="H14">
-        <v>2.181018542013135</v>
+        <v>9.813748492133641</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.371107314139294</v>
+        <v>12.06092695796559</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07936682344265478</v>
+        <v>0.3902093851945807</v>
       </c>
       <c r="D15">
-        <v>0.1478061790211314</v>
+        <v>0.8472159673237343</v>
       </c>
       <c r="E15">
-        <v>0.7087715839542454</v>
+        <v>4.470259732689087</v>
       </c>
       <c r="F15">
-        <v>3.417554602524831</v>
+        <v>16.50332312364185</v>
       </c>
       <c r="G15">
-        <v>3.966687771745626</v>
+        <v>20.15878349670965</v>
       </c>
       <c r="H15">
-        <v>2.162344012834808</v>
+        <v>9.557364994811735</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.329286057409945</v>
+        <v>11.9380108119384</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07457897080199416</v>
+        <v>0.3426998232090597</v>
       </c>
       <c r="D16">
-        <v>0.1384950473262165</v>
+        <v>0.7278435312693432</v>
       </c>
       <c r="E16">
-        <v>0.6626338051536322</v>
+        <v>3.77815052043708</v>
       </c>
       <c r="F16">
-        <v>3.226441281925361</v>
+        <v>14.39428815338971</v>
       </c>
       <c r="G16">
-        <v>3.73066093909091</v>
+        <v>17.56380450096202</v>
       </c>
       <c r="H16">
-        <v>2.055883877073995</v>
+        <v>8.328354648751827</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.089429168003562</v>
+        <v>11.23323027560718</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.07165604684574589</v>
+        <v>0.3181015662370612</v>
       </c>
       <c r="D17">
-        <v>0.1328122544846622</v>
+        <v>0.6687008749167944</v>
       </c>
       <c r="E17">
-        <v>0.6344734356464699</v>
+        <v>3.446655229063182</v>
       </c>
       <c r="F17">
-        <v>3.109906547216241</v>
+        <v>13.31946438139772</v>
       </c>
       <c r="G17">
-        <v>3.586641909769298</v>
+        <v>16.24382005051382</v>
       </c>
       <c r="H17">
-        <v>1.99105681049997</v>
+        <v>7.703764019330777</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.94211849063862</v>
+        <v>10.80051555282932</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06997989321288856</v>
+        <v>0.3050143135126575</v>
       </c>
       <c r="D18">
-        <v>0.1295539192348656</v>
+        <v>0.6378613649227987</v>
       </c>
       <c r="E18">
-        <v>0.618326308666667</v>
+        <v>3.276318575078335</v>
       </c>
       <c r="F18">
-        <v>3.0431296698263</v>
+        <v>12.75163408125047</v>
       </c>
       <c r="G18">
-        <v>3.504079926245083</v>
+        <v>15.54704098242576</v>
       </c>
       <c r="H18">
-        <v>1.953942185061351</v>
+        <v>7.374245859443079</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.857331695637129</v>
+        <v>10.55149949033279</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06941322161689811</v>
+        <v>0.3007313759128891</v>
       </c>
       <c r="D19">
-        <v>0.1284524172936017</v>
+        <v>0.627856592699942</v>
       </c>
       <c r="E19">
-        <v>0.6128674879012692</v>
+        <v>3.221401727223778</v>
       </c>
       <c r="F19">
-        <v>3.020562399879111</v>
+        <v>12.56636860820117</v>
       </c>
       <c r="G19">
-        <v>3.476171866273489</v>
+        <v>15.31978163825039</v>
       </c>
       <c r="H19">
-        <v>1.941404895010351</v>
+        <v>7.266801051581353</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.828614786364199</v>
+        <v>10.46716465870088</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.07196667133618462</v>
+        <v>0.3206012647577552</v>
       </c>
       <c r="D20">
-        <v>0.1334161246630856</v>
+        <v>0.674638861993003</v>
       </c>
       <c r="E20">
-        <v>0.6374659200924242</v>
+        <v>3.47964260672876</v>
       </c>
       <c r="F20">
-        <v>3.122285708113651</v>
+        <v>13.42822632158266</v>
       </c>
       <c r="G20">
-        <v>3.601944379440397</v>
+        <v>16.37732370930161</v>
       </c>
       <c r="H20">
-        <v>1.99793982481799</v>
+        <v>7.766915220539261</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.957806003277312</v>
+        <v>10.84659223998085</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.08060753682887878</v>
+        <v>0.4048466400159043</v>
       </c>
       <c r="D21">
-        <v>0.1502196021049826</v>
+        <v>0.8856373130682016</v>
       </c>
       <c r="E21">
-        <v>0.7207302043796346</v>
+        <v>4.700906088006477</v>
       </c>
       <c r="F21">
-        <v>3.467122389459689</v>
+        <v>17.16375027133307</v>
       </c>
       <c r="G21">
-        <v>4.027874326515359</v>
+        <v>20.97296542569876</v>
       </c>
       <c r="H21">
-        <v>2.189983512906224</v>
+        <v>9.943219625902827</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.391158149571254</v>
+        <v>12.11986155709377</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08630417082449071</v>
+        <v>0.4048466400159043</v>
       </c>
       <c r="D22">
-        <v>0.1613038644014182</v>
+        <v>0.8856373130682016</v>
       </c>
       <c r="E22">
-        <v>0.7756540621339951</v>
+        <v>4.700906088006477</v>
       </c>
       <c r="F22">
-        <v>3.694921204906962</v>
+        <v>17.16375027133307</v>
       </c>
       <c r="G22">
-        <v>4.308923702799916</v>
+        <v>20.97296542569876</v>
       </c>
       <c r="H22">
-        <v>2.317141151680005</v>
+        <v>9.943219625902827</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.673791817957863</v>
+        <v>12.11986155709377</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08325903397826551</v>
+        <v>0.4048466400159043</v>
       </c>
       <c r="D23">
-        <v>0.1553780927345656</v>
+        <v>0.8856373130682016</v>
       </c>
       <c r="E23">
-        <v>0.7462908648888913</v>
+        <v>4.700906088006477</v>
       </c>
       <c r="F23">
-        <v>3.573108878531798</v>
+        <v>17.16375027133307</v>
       </c>
       <c r="G23">
-        <v>4.158665295903518</v>
+        <v>20.97296542569876</v>
       </c>
       <c r="H23">
-        <v>2.249118535815285</v>
+        <v>9.943219625902827</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.523002190001307</v>
+        <v>12.11986155709377</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0718262247396666</v>
+        <v>0.4048466400159043</v>
       </c>
       <c r="D24">
-        <v>0.1331430877325772</v>
+        <v>0.8856373130682016</v>
       </c>
       <c r="E24">
-        <v>0.6361128857111993</v>
+        <v>4.700906088006477</v>
       </c>
       <c r="F24">
-        <v>3.116688404811185</v>
+        <v>17.16375027133307</v>
       </c>
       <c r="G24">
-        <v>3.595025398961184</v>
+        <v>20.97296542569876</v>
       </c>
       <c r="H24">
-        <v>1.994827531494195</v>
+        <v>9.943219625902827</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.950713976768498</v>
+        <v>12.11986155709377</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05968409346765213</v>
+        <v>0.4048466400159043</v>
       </c>
       <c r="D25">
-        <v>0.1095451899369664</v>
+        <v>0.8856373130682016</v>
       </c>
       <c r="E25">
-        <v>0.5191453392989445</v>
+        <v>4.700906088006477</v>
       </c>
       <c r="F25">
-        <v>2.633846868522568</v>
+        <v>17.16375027133307</v>
       </c>
       <c r="G25">
-        <v>2.997389641848088</v>
+        <v>20.97296542569876</v>
       </c>
       <c r="H25">
-        <v>1.72705449418288</v>
+        <v>9.943219625902827</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.331249627311138</v>
+        <v>12.11986155709377</v>
       </c>
       <c r="O25">
         <v>0</v>
